--- a/data/Data_Overview.xlsx
+++ b/data/Data_Overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\DataX\projekt\datax\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED9B406-52A0-4A25-916C-31F69E9360BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDD95F-9632-453D-B5BA-2BD191C6159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F89D305F-739C-4AC5-AE2E-76724689D633}"/>
   </bookViews>
@@ -635,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +644,33 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -665,9 +685,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,9 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EF1EC-6FED-44BF-8ABD-76941F74EC50}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1104,271 +1130,271 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>8949</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>8949</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8949</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>8949</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>8949</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8949</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>8949</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>8949</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>8949</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>8949</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>6728</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
         <v>8785</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>164</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>7599</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
         <v>4904</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>4045</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>3126</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>8949</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8949</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>8627</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
@@ -1380,53 +1406,53 @@
       <c r="E11">
         <v>3180</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>8949</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>3180</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
@@ -1438,24 +1464,24 @@
       <c r="E13">
         <v>1383</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
@@ -1467,24 +1493,24 @@
       <c r="E14">
         <v>2144</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
@@ -1496,24 +1522,24 @@
       <c r="E15">
         <v>191</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
@@ -1525,24 +1551,24 @@
       <c r="E16">
         <v>1479</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
@@ -1554,24 +1580,24 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18">
@@ -1583,53 +1609,53 @@
       <c r="E18">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
         <v>8284</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>665</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>92</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20">
@@ -1641,82 +1667,82 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>8949</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
         <v>3048</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22">
-        <v>8949</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
         <v>3048</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23">
@@ -1728,24 +1754,24 @@
       <c r="E23">
         <v>132</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24">
@@ -1757,24 +1783,24 @@
       <c r="E24">
         <v>68</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25">
@@ -1786,24 +1812,24 @@
       <c r="E25">
         <v>83</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26">
@@ -1815,24 +1841,24 @@
       <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
@@ -1844,24 +1870,24 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28">
@@ -1873,53 +1899,53 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2">
         <v>4904</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>4045</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>236</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="F29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30">
@@ -1931,111 +1957,111 @@
       <c r="E30">
         <v>52</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>8949</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8949</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C32">
-        <v>8949</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="C32" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
         <v>5334</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C33">
-        <v>8949</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="C33" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
         <v>6193</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>15</v>
       </c>
       <c r="C34">
@@ -2047,24 +2073,24 @@
       <c r="E34">
         <v>60</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35">
@@ -2076,24 +2102,24 @@
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36">
@@ -2105,24 +2131,24 @@
       <c r="E36">
         <v>16</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
       <c r="C37">
@@ -2134,24 +2160,24 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38">
@@ -2163,24 +2189,24 @@
       <c r="E38">
         <v>34</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39">
@@ -2192,24 +2218,24 @@
       <c r="E39">
         <v>15</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>80</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40">
@@ -2221,53 +2247,53 @@
       <c r="E40">
         <v>26</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41">
-        <v>8949</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
         <v>8040</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="F41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42">
@@ -2279,24 +2305,24 @@
       <c r="E42">
         <v>3121</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43">
@@ -2308,24 +2334,24 @@
       <c r="E43">
         <v>63</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>72</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44">
@@ -2337,24 +2363,24 @@
       <c r="E44">
         <v>128</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>72</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>94</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45">
@@ -2366,24 +2392,24 @@
       <c r="E45">
         <v>61</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>72</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>97</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46">
@@ -2395,24 +2421,24 @@
       <c r="E46">
         <v>66</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>72</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>89</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47">
@@ -2424,24 +2450,24 @@
       <c r="E47">
         <v>97</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>103</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>104</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48">
@@ -2453,24 +2479,24 @@
       <c r="E48">
         <v>97</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>72</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>103</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>107</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
       <c r="C49">
@@ -2482,24 +2508,24 @@
       <c r="E49">
         <v>231</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>72</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>89</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>110</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>58</v>
       </c>
       <c r="C50">
@@ -2511,82 +2537,82 @@
       <c r="E50">
         <v>298</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>103</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>113</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>8949</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>8949</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52">
-        <v>8949</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8949</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
         <v>2</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="F52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="C53">
@@ -2598,24 +2624,24 @@
       <c r="E53">
         <v>31</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>118</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54">
@@ -2627,24 +2653,24 @@
       <c r="E54">
         <v>61</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>122</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" t="s">
         <v>123</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55">
@@ -2656,24 +2682,24 @@
       <c r="E55">
         <v>91</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>126</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" t="s">
         <v>127</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56">
@@ -2685,24 +2711,24 @@
       <c r="E56">
         <v>366</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>131</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57">
@@ -2714,24 +2740,24 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58">
@@ -2743,24 +2769,24 @@
       <c r="E58">
         <v>499</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>44</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>135</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>138</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59">
@@ -2772,24 +2798,24 @@
       <c r="E59">
         <v>121</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>140</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>9</v>
       </c>
       <c r="C60">
@@ -2801,24 +2827,24 @@
       <c r="E60">
         <v>19</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>143</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>144</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61">
@@ -2830,24 +2856,24 @@
       <c r="E61">
         <v>2585</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62">
@@ -2859,24 +2885,24 @@
       <c r="E62">
         <v>932</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>58</v>
       </c>
       <c r="C63">
@@ -2888,24 +2914,24 @@
       <c r="E63">
         <v>146</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>149</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>150</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>58</v>
       </c>
       <c r="C64">
@@ -2917,24 +2943,24 @@
       <c r="E64">
         <v>132</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>153</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>58</v>
       </c>
       <c r="C65">
@@ -2946,24 +2972,24 @@
       <c r="E65">
         <v>164</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>72</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>149</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>156</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
       <c r="C66">
@@ -2975,24 +3001,24 @@
       <c r="E66">
         <v>133</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" t="s">
         <v>149</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>159</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>161</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>58</v>
       </c>
       <c r="C67">
@@ -3004,24 +3030,24 @@
       <c r="E67">
         <v>129</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" t="s">
         <v>72</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>149</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>162</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
       <c r="C68">
@@ -3033,24 +3059,24 @@
       <c r="E68">
         <v>124</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" t="s">
         <v>72</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>165</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>58</v>
       </c>
       <c r="C69">
@@ -3062,53 +3088,53 @@
       <c r="E69">
         <v>136</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>168</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>8949</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8949</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71">
@@ -3120,24 +3146,24 @@
       <c r="E71">
         <v>2</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72">
@@ -3149,24 +3175,24 @@
       <c r="E72">
         <v>53</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>173</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>174</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73">
@@ -3178,24 +3204,24 @@
       <c r="E73">
         <v>50</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74">
@@ -3207,24 +3233,24 @@
       <c r="E74">
         <v>22</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" t="s">
         <v>44</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>180</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" t="s">
         <v>181</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75">
@@ -3236,47 +3262,53 @@
       <c r="E75">
         <v>7</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" t="s">
         <v>184</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" t="s">
         <v>185</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>8066</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>883</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>782</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="2" t="s">
         <v>191</v>
       </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Data_Overview.xlsx
+++ b/data/Data_Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\DataX\projekt\datax\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBDD95F-9632-453D-B5BA-2BD191C6159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FD4A4F-D8D4-4CDF-B113-EC284FD17F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F89D305F-739C-4AC5-AE2E-76724689D633}"/>
   </bookViews>
@@ -1083,8 +1083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EF1EC-6FED-44BF-8ABD-76941F74EC50}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
